--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>dal</t>
+  </si>
+  <si>
+    <t>en cours</t>
   </si>
   <si>
     <t>bll</t>
@@ -613,7 +616,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -914,11 +917,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="35953345"/>
-        <c:axId val="39291068"/>
+        <c:axId val="17581828"/>
+        <c:axId val="35973202"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35953345"/>
+        <c:axId val="17581828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,14 +952,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39291068"/>
+        <c:crossAx val="35973202"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39291068"/>
+        <c:axId val="35973202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1000,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35953345"/>
+        <c:crossAx val="17581828"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1193,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1534,7 +1537,9 @@
         <v>36</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -1553,10 +1558,12 @@
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -1575,10 +1582,12 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -1597,10 +1606,12 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -1618,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>3</v>
@@ -1679,7 +1690,7 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1701,7 +1712,7 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -1723,7 +1734,7 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -1744,7 +1755,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>5</v>
@@ -1809,7 +1820,7 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -1831,7 +1842,7 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1853,7 +1864,7 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -1874,7 +1885,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
@@ -1914,7 +1925,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>5</v>
@@ -1940,7 +1951,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>5</v>
@@ -1966,7 +1977,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>3</v>
@@ -1990,7 +2001,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
       <c r="B33" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>3</v>
@@ -2014,10 +2025,10 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
       <c r="B34" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="27"/>
@@ -2038,10 +2049,10 @@
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
       <c r="B35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="27"/>
@@ -2064,10 +2075,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="27"/>
@@ -2229,7 +2240,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -2281,7 +2292,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -187,8 +187,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="S&quot;tan&quot;D\aRD"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -266,10 +267,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -613,7 +612,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -744,34 +743,34 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,11 +913,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="35953345"/>
-        <c:axId val="39291068"/>
+        <c:axId val="22514586"/>
+        <c:axId val="71434538"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35953345"/>
+        <c:axId val="22514586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,14 +948,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39291068"/>
+        <c:crossAx val="71434538"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39291068"/>
+        <c:axId val="71434538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +971,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Standard" sourceLinked="0"/>
+        <c:numFmt formatCode="StanJaRJ" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -997,7 +996,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35953345"/>
+        <c:crossAx val="22514586"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1025,6 +1024,7 @@
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
+    <a:noFill/>
     <a:ln w="9360">
       <a:solidFill>
         <a:srgbClr val="bfbfbf"/>
@@ -1040,15 +1040,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1056,8 +1056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="769680" y="13524120"/>
-        <a:ext cx="8191440" cy="5676480"/>
+        <a:off x="787320" y="13515120"/>
+        <a:ext cx="8085960" cy="5676120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1083,12 +1083,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1193,19 +1193,19 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7295918367347"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="20" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H19" s="20" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24" s="20" t="n">
         <v>0</v>
@@ -2240,43 +2240,43 @@
       </c>
       <c r="G43" s="29" t="n">
         <f aca="false">SUM(G8:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="29" t="e">
+        <v>24</v>
+      </c>
+      <c r="H43" s="29" t="n">
         <f aca="false">SUM(H42:H42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="I43" s="29" t="n">
         <f aca="false">SUM(I42:I42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="J43" s="29" t="n">
         <f aca="false">SUM(J42:J42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="K43" s="29" t="n">
         <f aca="false">SUM(K42:K42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="L43" s="29" t="n">
         <f aca="false">SUM(L42:L42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="M43" s="29" t="n">
         <f aca="false">SUM(M42:M42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="N43" s="29" t="n">
         <f aca="false">SUM(N42:N42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="O43" s="29" t="n">
         <f aca="false">SUM(O42:O42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P43" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="P43" s="29" t="n">
         <f aca="false">SUM(P42:P42)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +2358,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -612,7 +612,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -740,10 +740,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -913,11 +913,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22514586"/>
-        <c:axId val="71434538"/>
+        <c:axId val="17970234"/>
+        <c:axId val="88543158"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22514586"/>
+        <c:axId val="17970234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,14 +948,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71434538"/>
+        <c:crossAx val="88543158"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71434538"/>
+        <c:axId val="88543158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +996,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22514586"/>
+        <c:crossAx val="17970234"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1193,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P30" activeCellId="0" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1512,18 +1512,32 @@
         <v>8</v>
       </c>
       <c r="H14" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="J14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="n">
@@ -1632,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="20" t="n">
         <v>0</v>
@@ -1646,10 +1660,18 @@
       <c r="L19" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="M19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="n">
@@ -1758,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="H24" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="20" t="n">
         <v>0</v>
@@ -1778,8 +1800,12 @@
       <c r="N24" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="O24" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="n">
@@ -1879,35 +1905,39 @@
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20" t="n">
+        <v>24</v>
+      </c>
       <c r="G29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N29" s="20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="P29" s="20" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="n">
@@ -2236,11 +2266,11 @@
       <c r="E43" s="29"/>
       <c r="F43" s="29" t="n">
         <f aca="false">SUM(F7:F42)</f>
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G43" s="29" t="n">
         <f aca="false">SUM(G8:G42)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H43" s="29" t="n">
         <f aca="false">SUM(H42:H42)</f>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -156,6 +156,9 @@
     <t>      – Sélectionner un épreuve</t>
   </si>
   <si>
+    <t>sly</t>
+  </si>
+  <si>
     <t>      – Tirer au sort les questions</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
   </si>
   <si>
     <t>-Reprendre un TEST</t>
+  </si>
+  <si>
+    <t>-Creation Test/Questions</t>
   </si>
   <si>
     <t>Charge estimée/temps passé</t>
@@ -189,7 +195,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="S&quot;tan&quot;D\aRD"/>
+    <numFmt numFmtId="165" formatCode="S&quot;tanJa&quot;R\J"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -612,7 +618,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -740,10 +746,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -913,11 +919,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17970234"/>
-        <c:axId val="88543158"/>
+        <c:axId val="94541948"/>
+        <c:axId val="10951028"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17970234"/>
+        <c:axId val="94541948"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,14 +954,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88543158"/>
+        <c:crossAx val="10951028"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88543158"/>
+        <c:axId val="10951028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +977,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="StanJaRJ" sourceLinked="0"/>
+        <c:numFmt formatCode="S&quot;tanJa&quot;R&quot;J&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -996,7 +1002,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17970234"/>
+        <c:crossAx val="94541948"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1040,15 +1046,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1056,8 +1062,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="787320" y="13515120"/>
-        <a:ext cx="8085960" cy="5676120"/>
+        <a:off x="804600" y="13506120"/>
+        <a:ext cx="7981200" cy="5675760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1083,12 +1089,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1193,19 +1199,19 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P30" activeCellId="0" sqref="P30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="13" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.1938775510204"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,12 +1953,12 @@
         <v>43</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="27"/>
       <c r="F30" s="22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -1970,15 +1976,15 @@
         <v>37</v>
       </c>
       <c r="B31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>5</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="27"/>
       <c r="F31" s="22" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -1996,7 +2002,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>3</v>
@@ -2020,7 +2026,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
       <c r="B33" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>3</v>
@@ -2044,10 +2050,10 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
       <c r="B34" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="27"/>
@@ -2068,10 +2074,10 @@
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
       <c r="B35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="27"/>
@@ -2094,10 +2100,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="27"/>
@@ -2119,42 +2125,46 @@
       <c r="A37" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>5</v>
+      </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P37" s="20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,18 +2269,18 @@
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29" t="n">
         <f aca="false">SUM(F7:F42)</f>
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G43" s="29" t="n">
         <f aca="false">SUM(G8:G42)</f>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H43" s="29" t="n">
         <f aca="false">SUM(H42:H42)</f>
@@ -2311,7 +2321,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -2388,7 +2398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -618,7 +618,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -749,7 +749,7 @@
                   <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -919,11 +919,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94541948"/>
-        <c:axId val="10951028"/>
+        <c:axId val="83392420"/>
+        <c:axId val="84459276"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94541948"/>
+        <c:axId val="83392420"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,14 +954,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10951028"/>
+        <c:crossAx val="84459276"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10951028"/>
+        <c:axId val="84459276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1002,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94541948"/>
+        <c:crossAx val="83392420"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1199,8 +1199,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1960,9 +1960,15 @@
       <c r="F30" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="G30" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I30" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -1986,10 +1992,18 @@
       <c r="F31" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="G31" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="H31" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="I31" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J31" s="22" t="n">
+        <v>6</v>
+      </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
@@ -2280,7 +2294,7 @@
       </c>
       <c r="G43" s="29" t="n">
         <f aca="false">SUM(G8:G42)</f>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H43" s="29" t="n">
         <f aca="false">SUM(H42:H42)</f>
